--- a/biology/Botanique/Seagull_(rose)/Seagull_(rose).xlsx
+++ b/biology/Botanique/Seagull_(rose)/Seagull_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Seagull' est un cultivar de rosier grimpant, hybride de Rosa multiflora, obtenu par le rosiériste britannique Pritchard en 1907[1].
+'Seagull' est un cultivar de rosier grimpant, hybride de Rosa multiflora, obtenu par le rosiériste britannique Pritchard en 1907.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Seagull' (ce qui signifie « mouette » en anglais) est un rosier grimpant très vigoureux qui s'élève à plus de 5 mètres. Il est toujours très prisé grâce à ses fleurs simples (4-8 pétales) d'un blanc crémeux réunies en grands corymbes, fortement parfumées[2]. Elles s'ouvrent sur de grandes étamines dorées et fleurissent à la fin du printemps et au début de l'été. Le buisson présente un feuillage vert clair mat. Ses cynorrhodons à l'automne sont orangés. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Seagull' (ce qui signifie « mouette » en anglais) est un rosier grimpant très vigoureux qui s'élève à plus de 5 mètres. Il est toujours très prisé grâce à ses fleurs simples (4-8 pétales) d'un blanc crémeux réunies en grands corymbes, fortement parfumées. Elles s'ouvrent sur de grandes étamines dorées et fleurissent à la fin du printemps et au début de l'été. Le buisson présente un feuillage vert clair mat. Ses cynorrhodons à l'automne sont orangés. 
 C'est un rosier très résistant aux hivers froids (zone de rusticité 5b).
 Il a donné naissance à 'Guirlande d'Amour' (Lens 1993).
 </t>
